--- a/topic_split/topic_6.xlsx
+++ b/topic_split/topic_6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>issue</t>
   </si>
@@ -22,85 +22,88 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[4.84412055e-308 1.67406721e-308 2.95260782e-308 1.63859281e-308
- 7.33040550e-308 1.00000000e+000 5.03517905e-308 1.00396798e-307
- 3.47602343e-308 3.50209332e-308 7.17391847e-308 3.23302142e-308
- 4.49668625e-308 2.02402924e-308 6.53920180e-308 4.05057328e-308
- 1.31867191e-307 5.66137645e-308 5.02842474e-308 4.27935752e-308
- 3.98742035e-308 7.95693785e-308 6.55869851e-308 3.81591334e-308
- 3.90561009e-308]</t>
-  </si>
-  <si>
-    <t>[0.01592501 0.00608447 0.01123215 0.00595444 0.03105276 0.16472319
- 0.01837224 0.04055932 0.01319029 0.01224273 0.02674993 0.01219931
- 0.01712043 0.00737013 0.02343371 0.0141396  0.03876791 0.01977148
- 0.01781263 0.01504131 0.01528695 0.02574037 0.02618858 0.01326647
- 0.01452599]</t>
-  </si>
-  <si>
-    <t>[0.0195843  0.00593344 0.00974254 0.00579392 0.02139405 0.19021242
- 0.01804598 0.03148644 0.01158877 0.01305715 0.02421817 0.01079456
- 0.01517407 0.00719233 0.02345726 0.01512022 0.07377067 0.02098696
- 0.0186476  0.0159951  0.01313976 0.03488277 0.02113518 0.0144131
- 0.01340239]</t>
-  </si>
-  <si>
-    <t>[4.97946246e-308 1.69978685e-308 2.94598902e-308 1.66052089e-308
- 7.20802608e-308 1.00000000e+000 5.20360860e-308 1.02818361e-307
- 3.49419291e-308 3.58978230e-308 7.31370406e-308 3.24281101e-308
- 4.57169958e-308 2.06180079e-308 6.70693453e-308 4.16182942e-308
- 1.46411630e-307 5.79823667e-308 5.22299925e-308 4.42123722e-308
- 4.00133268e-308 8.53859241e-308 6.67910681e-308 3.92599441e-308
- 3.95633096e-308]</t>
-  </si>
-  <si>
-    <t>[5.05711215e-308 1.71114599e-308 2.92394981e-308 1.67391423e-308
- 6.64643775e-308 1.00000000e+000 5.32695531e-308 1.04895960e-307
- 3.48117605e-308 3.61231058e-308 7.36836717e-308 3.21364901e-308
- 4.59871285e-308 2.07637197e-308 7.09093495e-308 4.16446315e-308
- 1.53536980e-307 6.14375502e-308 5.18504982e-308 4.44498280e-308
- 3.98607430e-308 8.65264407e-308 6.61447628e-308 3.97537557e-308
- 3.93400301e-308]</t>
-  </si>
-  <si>
-    <t>[0.01355152 0.00564967 0.01079417 0.00552953 0.02664676 0.09438906
- 0.01859829 0.0519067  0.01295807 0.01142065 0.02900679 0.01178557
- 0.0176244  0.00691739 0.02412414 0.01323213 0.03347058 0.01937445
- 0.01726637 0.01441414 0.01535109 0.02389086 0.0292529  0.01247641
- 0.01435713]</t>
-  </si>
-  <si>
-    <t>[4.83411152e-308 1.70750179e-308 2.97240126e-308 1.67108116e-308
- 6.95758771e-308 1.00000000e+000 5.32471988e-308 1.11315014e-307
- 3.53150928e-308 3.53573537e-308 7.42881131e-308 3.25027887e-308
- 4.68824028e-308 2.07321099e-308 7.07825227e-308 4.06943902e-308
- 1.36730458e-307 6.04401859e-308 5.09308186e-308 4.35711396e-308
- 4.06675726e-308 8.13338027e-308 6.88893873e-308 3.88298381e-308
- 3.95455904e-308]</t>
-  </si>
-  <si>
-    <t>[0.02124103 0.00688152 0.01188731 0.00672997 0.0297192  0.39675119
- 0.02008828 0.03733296 0.01391479 0.01461562 0.0280193  0.01304201
- 0.01781778 0.0082991  0.02562339 0.01693331 0.05959202 0.02260146
- 0.02081971 0.01772212 0.01585994 0.0343103  0.02551215 0.0158945
- 0.01576451]</t>
-  </si>
-  <si>
-    <t>[0.01583957 0.0061676  0.01152615 0.00603329 0.03144385 0.14784409
- 0.0190917  0.04415176 0.01362972 0.01255293 0.02868082 0.01258267
- 0.01783714 0.00749538 0.02432936 0.01456239 0.03939662 0.02028942
- 0.01859512 0.01556999 0.01587775 0.02661906 0.0278893  0.01362226
- 0.01512344]</t>
-  </si>
-  <si>
-    <t>[0.02298993 0.0062678  0.00973437 0.0061201  0.01934524 0.10075038
- 0.01891578 0.02960338 0.01160736 0.01409595 0.02375001 0.0108
- 0.01530549 0.00759726 0.02483334 0.0161646  0.11422402 0.02305254
- 0.01949221 0.01712948 0.01306077 0.04098779 0.02042604 0.01575828
- 0.0136257 ]</t>
+    <t xml:space="preserve">Remove all unbounded API calls from frontend
+There are still a few places on the frontend where we make unbounded API calls (i.e. where we set the `limit` parameter to the API to a really high number to ensure we fetch "all" results") instead of paginating through API responses and fetching a sane amount, say 100, elements at a time.
+This is a blocker to us removing support for high `limit` values on the API - ideally, we would lock-down the API to not allow more than, say, 200 items in a single request. 
+We need to:
+ - [ ] Identify all places in the frontend code where we make unbounded calls
+ - [ ] Look for ways to change the logic to not need an unbounded call
+ - [ ] For cases where we do need to fetch "all" items, implement request pagination on the frontend, similar to how we are handling CSV downloads on the frontend now.
+ - [ ] Once the above is done, give warning to all API users, and then implement a `limit` restriction on the API.
+I can start enumerating places where we are making unbounded calls on the frontend.
+cc @frozenhelium @tovari @szabozoltan69 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PROD] Ensure Appeals always have a country associated
+Yesterday, we had an error on production after an Appeal was ingested without having a Country attached. We need to make sure this cannot happen again.
+If it is legitimate / possible that Appeals can be without a Country, then we should make sure the frontend does not fail if an Appeal is missing a Country.
+However, I think in all likelihood, we just want to ensure on the backend that this cannot happen that an Appeal is created without a Country.
+We should probably:
+ - Remove the `null=True` for country on the Appeal model, so that the database does not allow null values: https://github.com/IFRCGo/go-api/blob/develop/api/models.py#L895 - this will require checking all existing appeals in the database and writing a migration if needed.
+ - During the Appeal ingestion script, if the incoming data does not have a country attached to the appeal or the country lookup fails, output an error log, but do not attempt to insert that record into the database. For that I guess here instead of returning a `None` country, we should raise an exception: https://github.com/IFRCGo/go-api/blob/develop/api/management/commands/ingest_appeals.py#L191 and I guess catch the exception here and just skip inserting this record in case of failing country lookup: https://github.com/IFRCGo/go-api/blob/develop/api/management/commands/ingest_appeals.py#L206 ?
+We should discuss this - if we think that we want to continue allowing Null values for country on the backend in case the country look-up fails, then we would need to rather make changes on the client to deal with null values for country.
+For this particular Appeal where we had the country come in as null, we should investigate why that happened: was this information missing in the upstreeam data, or did we fail to match the country code correctly, or .. ?
+cc @frozenhelium @thenav56 @szabozoltan69 @tovari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin area drop-down lists with limited number of list items
+Currently the Province/region admin area selection drop-down list shows up to 20 items in the list. In case there are more list items, it doesn't show the rest. Users can add all list items, then all items appear in the list, but then they need to deselect those that are not in scope.
+Would be a better to load all admin items and make them visible in the list.
+![image](https://github.com/IFRCGo/go-web-app/assets/68283148/2f7fe0ad-d4cd-4e5f-99a7-5c6641bebd10)
+Latvia has the highest number of regions at the moment (119), but the list is still manageable when all items are listed.
+Forms:
+- Field report form
+- 3W forms
+- DREF forms
+- Flash update form
+cc: @davidmuchatiza </t>
+  </si>
+  <si>
+    <t>Translatte (frontend)
+Methodology after the last meeting with the IFRC Translation Service team:
+1. We can directly fetch translations from the ifrc translation service.
+2. We do not need a cache layer in between.
+3. The updates to the translations are all handled client side.
+4. We need to store the last migration applied on the server. How should we handle case when last migration is not defined or does not exist on the codebase?
+5. We need to send updates to the backend during deployment. The deployment should fail if translations cannot be pushed.</t>
+  </si>
+  <si>
+    <t>Edge Matching GO Admin 0 to Subnational Boundaries
+Field Maps has developed a script to edge-clipper custom Admin0 boundaries with subnational boundaries from OCHA CODs and GeoBoundaries. Here is the link to the process: [Edge Clipper](https://github.com/fieldmaps/edge-clipper). We now seek to edge match the OCHA CODs subnational boundaries to GO Admin0 boundaries. When there is a gap, we check if we can adopt GeoBoundaries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment - Lyris list updates through db connection
+We aim to send generic notifications to those users, who set this option on their notification settings page.
+We need to be able to update Lyris email lists through database connection.
+According to the attached Lyris documentation ODBC connection might be possible, however this needs further assessment and exploration.
+Please  find out, if it really works and how it works.
+Thanks!
+[lyris_maillist-10_manual (1).pdf](https://github.com/user-attachments/files/17461241/lyris_maillist-10_manual.1.pdf)
+</t>
+  </si>
+  <si>
+    <t>Update Azure Pipeline to Use pnpm Instead of Yarn
+The current Azure pipeline for the project is configured to use Yarn as the package manager. We need to update the pipeline configuration to use pnpm instead.</t>
+  </si>
+  <si>
+    <t>New section: Proposed Actions
+Add new section in operation section of the form
+- [ ]  "Proposed actions", this section will be similar to "planned interventions" in the other forms, but the grouping wont be by sector (Shelter, Health, etc) but by type of intervention, there will be only two boxes, "Early Actions" and "Early Response", with Activities (we want to find a way to "tag" each one of the activities with sectors) and budget, some extra rows at the end, please see picture attached below (please note that the sub-total should be a sum of the budgets, it should ALWAYS total 75k, so we can add some logic and a warning if it is not matching)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move Admin URL Generation to Backend
+Currently, the [Admin URL](https://github.com/IFRCGo/go-web-app/blob/e4777ceb8c5efe8ac9c5ffad10f229fd22e9604e/app/src/config.ts#L28) is generated on the frontend, which is error-prone. 
+This should be generated by the backend.
+Frontend should use the backend-provided URL instead of generating it.  
+PR to fix this issue on Alpha Instance : https://github.com/IFRCGo/go-web-app/pull/1690
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country plans - change approach
+We don't upload manually Country Plans and Internal Plans anymore on the admin page, we only use the source api to load documents to the blob storage and we host the documents from the blob storage on the UI.
+We don't need to host these documents. Instead, we could publish the link to the document provided by the api.
+We should change the current approach and store and publish only the url of the documents.
+</t>
   </si>
 </sst>
 </file>
@@ -458,131 +461,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>62</v>
-      </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>82</v>
-      </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>99</v>
-      </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>120</v>
-      </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>126</v>
-      </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>129</v>
-      </c>
       <c r="B11">
         <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
